--- a/BackTest/2019-10-15 BackTest ETHOS.xlsx
+++ b/BackTest/2019-10-15 BackTest ETHOS.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>9.09999999999998</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-7.865168539325736</v>
+      </c>
       <c r="L12" t="n">
         <v>64.63</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>9.09999999999998</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>30.15873015873033</v>
+      </c>
       <c r="L13" t="n">
         <v>64.55999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>9.199999999999974</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>64.75999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>9.59999999999998</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-10.63829787234045</v>
+      </c>
       <c r="L15" t="n">
         <v>64.72</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>9.699999999999974</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-8.695652173913178</v>
+      </c>
       <c r="L16" t="n">
         <v>64.66</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>10.09999999999998</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>35.48387096774182</v>
+      </c>
       <c r="L17" t="n">
         <v>64.58</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>10.09999999999998</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-66.66666666666825</v>
+      </c>
       <c r="L18" t="n">
         <v>64.69</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>10.19999999999999</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-53.84615384615419</v>
+      </c>
       <c r="L19" t="n">
         <v>64.62</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>10.3</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-69.23076923076906</v>
+      </c>
       <c r="L20" t="n">
         <v>64.54000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>10.3</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-66.66666666666666</v>
+      </c>
       <c r="L21" t="n">
         <v>64.45000000000002</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>10.40000000000001</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-53.846153846153</v>
+      </c>
       <c r="L22" t="n">
         <v>64.38000000000002</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>11.10000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>-6.422018348623745</v>
+        <v>-5.263157894736448</v>
       </c>
       <c r="L23" t="n">
         <v>64.38000000000002</v>
@@ -1466,7 +1488,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.923076923076947</v>
+        <v>-49.9999999999994</v>
       </c>
       <c r="L24" t="n">
         <v>64.16000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>15.10000000000002</v>
       </c>
       <c r="K25" t="n">
-        <v>-2.912621359223266</v>
+        <v>3.703703703703723</v>
       </c>
       <c r="L25" t="n">
         <v>64.17000000000002</v>
@@ -1564,7 +1586,7 @@
         <v>16.20000000000002</v>
       </c>
       <c r="K26" t="n">
-        <v>-13.27433628318574</v>
+        <v>-8.196721311475235</v>
       </c>
       <c r="L26" t="n">
         <v>64.08000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>17.30000000000003</v>
       </c>
       <c r="K27" t="n">
-        <v>-1.639344262295099</v>
+        <v>8.3333333333334</v>
       </c>
       <c r="L27" t="n">
         <v>64.14000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>17.40000000000002</v>
       </c>
       <c r="K28" t="n">
-        <v>17.30769230769222</v>
+        <v>8.333333333333218</v>
       </c>
       <c r="L28" t="n">
         <v>64.21000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>17.50000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>-2.325581395348864</v>
+        <v>8.333333333333432</v>
       </c>
       <c r="L29" t="n">
         <v>64.26000000000002</v>
@@ -1760,7 +1782,7 @@
         <v>17.60000000000002</v>
       </c>
       <c r="K30" t="n">
-        <v>-3.448275862069084</v>
+        <v>6.849315068493127</v>
       </c>
       <c r="L30" t="n">
         <v>64.31000000000002</v>
@@ -1809,7 +1831,7 @@
         <v>17.70000000000002</v>
       </c>
       <c r="K31" t="n">
-        <v>-5.747126436781588</v>
+        <v>4.109589041095845</v>
       </c>
       <c r="L31" t="n">
         <v>64.35000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>17.90000000000002</v>
       </c>
       <c r="K32" t="n">
-        <v>-6.818181818181884</v>
+        <v>-8.823529411764817</v>
       </c>
       <c r="L32" t="n">
         <v>64.36</v>
